--- a/Benchmark-Models/Chen_MSB2009/General_info.xlsx
+++ b/Benchmark-Models/Chen_MSB2009/General_info.xlsx
@@ -107,7 +107,7 @@
     <t>log10(k103)</t>
   </si>
   <si>
-    <t>log10(k104)</t>
+    <t>k104</t>
   </si>
   <si>
     <t>log10(k105)</t>
@@ -122,7 +122,7 @@
     <t>log10(k107)</t>
   </si>
   <si>
-    <t>log10(k108)</t>
+    <t>k108</t>
   </si>
   <si>
     <t>log10(k109)</t>
@@ -134,25 +134,25 @@
     <t>log10(k110)</t>
   </si>
   <si>
-    <t>log10(k111)</t>
+    <t>k111</t>
   </si>
   <si>
     <t>log10(k112)</t>
   </si>
   <si>
-    <t>log10(k113)</t>
+    <t>k113</t>
   </si>
   <si>
     <t>log10(k114)</t>
   </si>
   <si>
-    <t>log10(k115)</t>
+    <t>k115</t>
   </si>
   <si>
     <t>log10(k117)</t>
   </si>
   <si>
-    <t>log10(k118)</t>
+    <t>k118</t>
   </si>
   <si>
     <t>log10(k120)</t>
@@ -161,10 +161,10 @@
     <t>log10(k120b)</t>
   </si>
   <si>
-    <t>log10(k123)</t>
-  </si>
-  <si>
-    <t>log10(k123h)</t>
+    <t>k123</t>
+  </si>
+  <si>
+    <t>k123h</t>
   </si>
   <si>
     <t>log10(k15)</t>
@@ -242,28 +242,28 @@
     <t>log10(k42)</t>
   </si>
   <si>
-    <t>log10(k43)</t>
+    <t>k43</t>
   </si>
   <si>
     <t>log10(k44)</t>
   </si>
   <si>
-    <t>log10(k45)</t>
-  </si>
-  <si>
-    <t>log10(k47)</t>
+    <t>k45</t>
+  </si>
+  <si>
+    <t>k47</t>
   </si>
   <si>
     <t>log10(k48)</t>
   </si>
   <si>
-    <t>log10(k49)</t>
-  </si>
-  <si>
-    <t>log10(k4b)</t>
-  </si>
-  <si>
-    <t>log10(k5)</t>
+    <t>k49</t>
+  </si>
+  <si>
+    <t>k4b</t>
+  </si>
+  <si>
+    <t>k5</t>
   </si>
   <si>
     <t>log10(k50)</t>
@@ -272,22 +272,22 @@
     <t>log10(k52)</t>
   </si>
   <si>
-    <t>log10(k53)</t>
-  </si>
-  <si>
-    <t>log10(k55)</t>
+    <t>k53</t>
+  </si>
+  <si>
+    <t>k55</t>
   </si>
   <si>
     <t>log10(k56)</t>
   </si>
   <si>
-    <t>log10(k57)</t>
+    <t>k57</t>
   </si>
   <si>
     <t>log10(k58)</t>
   </si>
   <si>
-    <t>log10(k5b)</t>
+    <t>k5b</t>
   </si>
   <si>
     <t>log10(k6)</t>
@@ -311,7 +311,7 @@
     <t>log10(k64)</t>
   </si>
   <si>
-    <t>log10(k65)</t>
+    <t>k65</t>
   </si>
   <si>
     <t>log10(k66)</t>
@@ -320,13 +320,13 @@
     <t>log10(k67)</t>
   </si>
   <si>
-    <t>log10(k68)</t>
+    <t>k68</t>
   </si>
   <si>
     <t>log10(k69)</t>
   </si>
   <si>
-    <t>log10(k6b)</t>
+    <t>k6b</t>
   </si>
   <si>
     <t>log10(k7)</t>
@@ -335,10 +335,10 @@
     <t>log10(k70)</t>
   </si>
   <si>
-    <t>log10(k71)</t>
-  </si>
-  <si>
-    <t>log10(k72)</t>
+    <t>k71</t>
+  </si>
+  <si>
+    <t>k72</t>
   </si>
   <si>
     <t>log10(k73)</t>
@@ -347,10 +347,10 @@
     <t>log10(k74)</t>
   </si>
   <si>
-    <t>log10(k75)</t>
-  </si>
-  <si>
-    <t>log10(k76)</t>
+    <t>k75</t>
+  </si>
+  <si>
+    <t>k76</t>
   </si>
   <si>
     <t>log10(k8)</t>
@@ -365,7 +365,7 @@
     <t>log10(k94b)</t>
   </si>
   <si>
-    <t>log10(k95)</t>
+    <t>k95</t>
   </si>
   <si>
     <t>log10(k96)</t>
@@ -425,7 +425,7 @@
     <t>log10(kd115)</t>
   </si>
   <si>
-    <t>log10(kd116)</t>
+    <t>kd116</t>
   </si>
   <si>
     <t>log10(kd117)</t>
@@ -446,7 +446,7 @@
     <t>log10(kd123h)</t>
   </si>
   <si>
-    <t>log10(kd15)</t>
+    <t>kd15</t>
   </si>
   <si>
     <t>log10(kd17)</t>
@@ -503,7 +503,7 @@
     <t>log10(kd35)</t>
   </si>
   <si>
-    <t>log10(kd36)</t>
+    <t>kd36</t>
   </si>
   <si>
     <t>log10(kd37)</t>
@@ -566,13 +566,13 @@
     <t>log10(kd5b)</t>
   </si>
   <si>
-    <t>log10(kd60)</t>
-  </si>
-  <si>
-    <t>log10(kd60b)</t>
-  </si>
-  <si>
-    <t>log10(kd61)</t>
+    <t>kd60</t>
+  </si>
+  <si>
+    <t>kd60b</t>
+  </si>
+  <si>
+    <t>kd61</t>
   </si>
   <si>
     <t>log10(kd63)</t>
@@ -599,7 +599,7 @@
     <t>log10(kd69)</t>
   </si>
   <si>
-    <t>log10(kd6b)</t>
+    <t>kd6b</t>
   </si>
   <si>
     <t>log10(kd7)</t>
@@ -2306,40 +2306,40 @@
     <t>Step10Mio</t>
   </si>
   <si>
-    <t>step1(t,0,1800,10000000)</t>
+    <t>step2(t, 0, 1799.99, 10000000, 1800, 0) *sin((pi/2)*(t-1799.99)/(1800-1799.99)) + step1(t,0,1800, 10000000)</t>
   </si>
   <si>
     <t>Step33</t>
   </si>
   <si>
-    <t>step1(t,0,1800,0.0033)</t>
+    <t>step2(t, 0, 1799.99, 0.0033, 1800, 0) *sin((pi/2)*(t-1799.99)/(1800-1799.99)) + step1(t,0,1800, 0.0033)</t>
   </si>
   <si>
     <t>Step0</t>
   </si>
   <si>
-    <t>step1(t, 0, 1800, 0)</t>
-  </si>
-  <si>
     <t>Step1</t>
   </si>
   <si>
-    <t>step1(t, 0, 1800, 1)</t>
+    <t>step2(t, 0, 1799.99, 1, 1800, 0) *sin((pi/2)*(t-1799.99)/(1800-1799.99)) + step1(t,0,1800, 1)</t>
   </si>
   <si>
     <t>StepMini</t>
   </si>
   <si>
-    <t>step1(t, 0, 1800, 0.000000018704)</t>
+    <t>step2(t, 0, 1799.99, 0.000000018704, 1800, 0) *sin((pi/2)*(t-1799.99)/(1800-1799.99)) + step1(t,0,1800, 0.000000018704)</t>
   </si>
   <si>
     <t>Step5</t>
   </si>
   <si>
-    <t>step1(t, 0, 1800, 0.00005)</t>
-  </si>
-  <si>
-    <t>StepGrml</t>
+    <t>step2(t, 0, 1799.99, 0.00005, 1800, 0) *sin((pi/2)*(t-1799.99)/(1800-1799.99)) + step1(t,0,1800, 0.00005)</t>
+  </si>
+  <si>
+    <t>StepLate</t>
+  </si>
+  <si>
+    <t>step2(t, 0, 2659.99, 0.0150356, 2660, 0) *sin((pi/2)*(t-2659.99)/(2660-2659.99)) + step1(t,0,2660, 0.0150356)</t>
   </si>
   <si>
     <t>ODE equations</t>
@@ -4415,7 +4415,7 @@
     <t>dc60/dt</t>
   </si>
   <si>
-    <t>c61*kd56 - StepGrml*c60 + c61*kd57 + c62*kd57 + c62*kd58 + c84*kd56 + c84*kd57 + c85*kd57 + c85*kd58 + c520*kd116 - 2*c55*c60*k57 - c57*c60*k57 - c57*c60*k58 - c59*c60*k56 - c60*c81*k57 - c60*c81*k58 - c60*c83*k56</t>
+    <t>c61*kd56 - StepLate*c60 + c61*kd57 + c62*kd57 + c62*kd58 + c84*kd56 + c84*kd57 + c85*kd57 + c85*kd58 + c520*kd116 - 2*c55*c60*k57 - c57*c60*k57 - c57*c60*k58 - c59*c60*k56 - c60*c81*k57 - c60*c81*k58 - c60*c83*k56</t>
   </si>
   <si>
     <t>dc61/dt</t>
@@ -5165,7 +5165,7 @@
     <t>dc520/dt</t>
   </si>
   <si>
-    <t>StepGrml*c60 - c520*kd116</t>
+    <t>StepLate*c60 - c520*kd116</t>
   </si>
   <si>
     <t>dc521/dt</t>
@@ -5435,7 +5435,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67066.05943520511</v>
+        <v>231400.28332728788</v>
       </c>
     </row>
     <row r="8">
@@ -5443,7 +5443,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66849.04688995847</v>
+        <v>231183.27078204116</v>
       </c>
     </row>
     <row r="9">
@@ -5505,7 +5505,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -5554,13 +5554,13 @@
         <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>5.956648579205203</v>
+        <v>4.0</v>
       </c>
       <c r="C2" t="n">
         <v>-5.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.0</v>
+        <v>6.956648579205203</v>
       </c>
       <c r="E2" t="n">
         <v>1.0</v>
@@ -5574,13 +5574,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>6.033423755486949</v>
+        <v>4.0</v>
       </c>
       <c r="C3" t="n">
         <v>-5.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>7.033423755486949</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
@@ -5594,13 +5594,13 @@
         <v>26</v>
       </c>
       <c r="B4" t="n">
-        <v>5.841984804590114</v>
+        <v>4.0</v>
       </c>
       <c r="C4" t="n">
         <v>-5.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0</v>
+        <v>6.841984804590114</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
@@ -5617,7 +5617,7 @@
         <v>-6.079354998593212</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.0</v>
+        <v>-7.079354998593212</v>
       </c>
       <c r="D5" t="n">
         <v>3.0</v>
@@ -5637,7 +5637,7 @@
         <v>-6.301029995663981</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.0</v>
+        <v>-7.301029995663981</v>
       </c>
       <c r="D6" t="n">
         <v>3.0</v>
@@ -5657,7 +5657,7 @@
         <v>-8.077283362892247</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.0</v>
+        <v>-9.077283362892247</v>
       </c>
       <c r="D7" t="n">
         <v>3.0</v>
@@ -5674,7 +5674,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
         <v>-5.0</v>
@@ -5683,7 +5683,7 @@
         <v>3.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -5737,7 +5737,7 @@
         <v>-7.5793545519498595</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.0</v>
+        <v>-8.579354551949859</v>
       </c>
       <c r="D11" t="n">
         <v>3.0</v>
@@ -5774,7 +5774,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C13" t="n">
         <v>-5.0</v>
@@ -5783,7 +5783,7 @@
         <v>3.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -5797,7 +5797,7 @@
         <v>-5.301029995663981</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.0</v>
+        <v>-6.301029995663981</v>
       </c>
       <c r="D14" t="n">
         <v>3.0</v>
@@ -5854,7 +5854,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C17" t="n">
         <v>-5.0</v>
@@ -5863,7 +5863,7 @@
         <v>3.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -5894,7 +5894,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C19" t="n">
         <v>-5.0</v>
@@ -5903,7 +5903,7 @@
         <v>3.0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -5917,7 +5917,7 @@
         <v>-5.302059624559441</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.0</v>
+        <v>-6.302059624559441</v>
       </c>
       <c r="D20" t="n">
         <v>3.0</v>
@@ -5934,7 +5934,7 @@
         <v>43</v>
       </c>
       <c r="B21" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C21" t="n">
         <v>-5.0</v>
@@ -5943,7 +5943,7 @@
         <v>3.0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
@@ -5957,7 +5957,7 @@
         <v>-7.079354998593212</v>
       </c>
       <c r="C22" t="n">
-        <v>-5.0</v>
+        <v>-8.079354998593212</v>
       </c>
       <c r="D22" t="n">
         <v>3.0</v>
@@ -5974,7 +5974,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C23" t="n">
         <v>-5.0</v>
@@ -5983,7 +5983,7 @@
         <v>3.0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
@@ -5997,7 +5997,7 @@
         <v>-7.829354045326882</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.0</v>
+        <v>-8.829354045326882</v>
       </c>
       <c r="D24" t="n">
         <v>3.0</v>
@@ -6017,7 +6017,7 @@
         <v>-10.227283792725252</v>
       </c>
       <c r="C25" t="n">
-        <v>-5.0</v>
+        <v>-11.227283792725252</v>
       </c>
       <c r="D25" t="n">
         <v>3.0</v>
@@ -6034,7 +6034,7 @@
         <v>48</v>
       </c>
       <c r="B26" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C26" t="n">
         <v>-5.0</v>
@@ -6043,7 +6043,7 @@
         <v>3.0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
@@ -6054,7 +6054,7 @@
         <v>49</v>
       </c>
       <c r="B27" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C27" t="n">
         <v>-5.0</v>
@@ -6063,7 +6063,7 @@
         <v>3.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
@@ -6077,7 +6077,7 @@
         <v>-7.778064400171995</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.0</v>
+        <v>-8.778064400171996</v>
       </c>
       <c r="D28" t="n">
         <v>3.0</v>
@@ -6157,7 +6157,7 @@
         <v>-6.778064400171995</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.0</v>
+        <v>-7.778064400171995</v>
       </c>
       <c r="D32" t="n">
         <v>3.0</v>
@@ -6197,7 +6197,7 @@
         <v>-5.128064136614194</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.0</v>
+        <v>-6.128064136614194</v>
       </c>
       <c r="D34" t="n">
         <v>3.0</v>
@@ -6237,7 +6237,7 @@
         <v>-6.43533393574791</v>
       </c>
       <c r="C36" t="n">
-        <v>-5.0</v>
+        <v>-7.43533393574791</v>
       </c>
       <c r="D36" t="n">
         <v>3.0</v>
@@ -6257,7 +6257,7 @@
         <v>-6.855930427440013</v>
       </c>
       <c r="C37" t="n">
-        <v>-5.0</v>
+        <v>-7.855930427440013</v>
       </c>
       <c r="D37" t="n">
         <v>3.0</v>
@@ -6317,7 +6317,7 @@
         <v>-5.301029995663981</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.0</v>
+        <v>-6.301029995663981</v>
       </c>
       <c r="D40" t="n">
         <v>3.0</v>
@@ -6337,7 +6337,7 @@
         <v>-5.931814138253839</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.0</v>
+        <v>-6.931814138253839</v>
       </c>
       <c r="D41" t="n">
         <v>3.0</v>
@@ -6357,7 +6357,7 @@
         <v>-7.427555935364118</v>
       </c>
       <c r="C42" t="n">
-        <v>-5.0</v>
+        <v>-8.427555935364119</v>
       </c>
       <c r="D42" t="n">
         <v>3.0</v>
@@ -6377,7 +6377,7 @@
         <v>-6.3979400086720375</v>
       </c>
       <c r="C43" t="n">
-        <v>-5.0</v>
+        <v>-7.3979400086720375</v>
       </c>
       <c r="D43" t="n">
         <v>3.0</v>
@@ -6417,7 +6417,7 @@
         <v>-5.1249387366083</v>
       </c>
       <c r="C45" t="n">
-        <v>-5.0</v>
+        <v>-6.1249387366083</v>
       </c>
       <c r="D45" t="n">
         <v>3.0</v>
@@ -6437,7 +6437,7 @@
         <v>-5.1249387366083</v>
       </c>
       <c r="C46" t="n">
-        <v>-5.0</v>
+        <v>-6.1249387366083</v>
       </c>
       <c r="D46" t="n">
         <v>3.0</v>
@@ -6477,7 +6477,7 @@
         <v>-5.823908740944319</v>
       </c>
       <c r="C48" t="n">
-        <v>-5.0</v>
+        <v>-6.823908740944319</v>
       </c>
       <c r="D48" t="n">
         <v>3.0</v>
@@ -6497,7 +6497,7 @@
         <v>-5.171984935776023</v>
       </c>
       <c r="C49" t="n">
-        <v>-5.0</v>
+        <v>-6.171984935776023</v>
       </c>
       <c r="D49" t="n">
         <v>3.0</v>
@@ -6574,7 +6574,7 @@
         <v>75</v>
       </c>
       <c r="B53" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C53" t="n">
         <v>-5.0</v>
@@ -6583,7 +6583,7 @@
         <v>3.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" t="s">
         <v>24</v>
@@ -6614,7 +6614,7 @@
         <v>77</v>
       </c>
       <c r="B55" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C55" t="n">
         <v>-5.0</v>
@@ -6623,7 +6623,7 @@
         <v>3.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F55" t="s">
         <v>24</v>
@@ -6634,7 +6634,7 @@
         <v>78</v>
       </c>
       <c r="B56" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C56" t="n">
         <v>-5.0</v>
@@ -6643,7 +6643,7 @@
         <v>3.0</v>
       </c>
       <c r="E56" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F56" t="s">
         <v>24</v>
@@ -6674,7 +6674,7 @@
         <v>80</v>
       </c>
       <c r="B58" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C58" t="n">
         <v>-5.0</v>
@@ -6683,7 +6683,7 @@
         <v>3.0</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F58" t="s">
         <v>24</v>
@@ -6694,7 +6694,7 @@
         <v>81</v>
       </c>
       <c r="B59" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C59" t="n">
         <v>-5.0</v>
@@ -6703,7 +6703,7 @@
         <v>3.0</v>
       </c>
       <c r="E59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F59" t="s">
         <v>24</v>
@@ -6714,7 +6714,7 @@
         <v>82</v>
       </c>
       <c r="B60" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C60" t="n">
         <v>-5.0</v>
@@ -6723,7 +6723,7 @@
         <v>3.0</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F60" t="s">
         <v>24</v>
@@ -6737,7 +6737,7 @@
         <v>-7.323488375029105</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.0</v>
+        <v>-8.323488375029104</v>
       </c>
       <c r="D61" t="n">
         <v>3.0</v>
@@ -6757,7 +6757,7 @@
         <v>-5.052995392605243</v>
       </c>
       <c r="C62" t="n">
-        <v>-5.0</v>
+        <v>-6.052995392605243</v>
       </c>
       <c r="D62" t="n">
         <v>3.0</v>
@@ -6774,7 +6774,7 @@
         <v>85</v>
       </c>
       <c r="B63" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C63" t="n">
         <v>-5.0</v>
@@ -6783,7 +6783,7 @@
         <v>3.0</v>
       </c>
       <c r="E63" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F63" t="s">
         <v>24</v>
@@ -6794,7 +6794,7 @@
         <v>86</v>
       </c>
       <c r="B64" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C64" t="n">
         <v>-5.0</v>
@@ -6803,7 +6803,7 @@
         <v>3.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F64" t="s">
         <v>24</v>
@@ -6834,7 +6834,7 @@
         <v>88</v>
       </c>
       <c r="B66" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C66" t="n">
         <v>-5.0</v>
@@ -6843,7 +6843,7 @@
         <v>3.0</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F66" t="s">
         <v>24</v>
@@ -6857,7 +6857,7 @@
         <v>-6.079354998593212</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.0</v>
+        <v>-7.079354998593212</v>
       </c>
       <c r="D67" t="n">
         <v>3.0</v>
@@ -6874,7 +6874,7 @@
         <v>90</v>
       </c>
       <c r="B68" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C68" t="n">
         <v>-5.0</v>
@@ -6883,7 +6883,7 @@
         <v>3.0</v>
       </c>
       <c r="E68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F68" t="s">
         <v>24</v>
@@ -7034,7 +7034,7 @@
         <v>98</v>
       </c>
       <c r="B76" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C76" t="n">
         <v>-5.0</v>
@@ -7043,7 +7043,7 @@
         <v>3.0</v>
       </c>
       <c r="E76" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F76" t="s">
         <v>24</v>
@@ -7094,7 +7094,7 @@
         <v>101</v>
       </c>
       <c r="B79" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
         <v>-5.0</v>
@@ -7103,7 +7103,7 @@
         <v>3.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="s">
         <v>24</v>
@@ -7134,7 +7134,7 @@
         <v>103</v>
       </c>
       <c r="B81" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C81" t="n">
         <v>-5.0</v>
@@ -7143,7 +7143,7 @@
         <v>3.0</v>
       </c>
       <c r="E81" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F81" t="s">
         <v>24</v>
@@ -7177,7 +7177,7 @@
         <v>-6.175874166083451</v>
       </c>
       <c r="C83" t="n">
-        <v>-5.0</v>
+        <v>-7.175874166083451</v>
       </c>
       <c r="D83" t="n">
         <v>3.0</v>
@@ -7194,7 +7194,7 @@
         <v>106</v>
       </c>
       <c r="B84" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C84" t="n">
         <v>-5.0</v>
@@ -7203,7 +7203,7 @@
         <v>3.0</v>
       </c>
       <c r="E84" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F84" t="s">
         <v>24</v>
@@ -7214,7 +7214,7 @@
         <v>107</v>
       </c>
       <c r="B85" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C85" t="n">
         <v>-5.0</v>
@@ -7223,7 +7223,7 @@
         <v>3.0</v>
       </c>
       <c r="E85" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F85" t="s">
         <v>24</v>
@@ -7257,7 +7257,7 @@
         <v>-6.196417257578687</v>
       </c>
       <c r="C87" t="n">
-        <v>-5.0</v>
+        <v>-7.196417257578687</v>
       </c>
       <c r="D87" t="n">
         <v>3.0</v>
@@ -7274,7 +7274,7 @@
         <v>110</v>
       </c>
       <c r="B88" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C88" t="n">
         <v>-5.0</v>
@@ -7283,7 +7283,7 @@
         <v>3.0</v>
       </c>
       <c r="E88" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F88" t="s">
         <v>24</v>
@@ -7294,7 +7294,7 @@
         <v>111</v>
       </c>
       <c r="B89" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C89" t="n">
         <v>-5.0</v>
@@ -7303,7 +7303,7 @@
         <v>3.0</v>
       </c>
       <c r="E89" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F89" t="s">
         <v>24</v>
@@ -7317,7 +7317,7 @@
         <v>-6.228064341322957</v>
       </c>
       <c r="C90" t="n">
-        <v>-5.0</v>
+        <v>-7.228064341322957</v>
       </c>
       <c r="D90" t="n">
         <v>3.0</v>
@@ -7337,7 +7337,7 @@
         <v>-5.029355171649816</v>
       </c>
       <c r="C91" t="n">
-        <v>-5.0</v>
+        <v>-6.029355171649816</v>
       </c>
       <c r="D91" t="n">
         <v>3.0</v>
@@ -7394,7 +7394,7 @@
         <v>116</v>
       </c>
       <c r="B94" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C94" t="n">
         <v>-5.0</v>
@@ -7403,7 +7403,7 @@
         <v>3.0</v>
       </c>
       <c r="E94" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F94" t="s">
         <v>24</v>
@@ -7417,7 +7417,7 @@
         <v>-5.777283528852417</v>
       </c>
       <c r="C95" t="n">
-        <v>-5.0</v>
+        <v>-6.777283528852417</v>
       </c>
       <c r="D95" t="n">
         <v>3.0</v>
@@ -7794,7 +7794,7 @@
         <v>136</v>
       </c>
       <c r="B114" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C114" t="n">
         <v>-5.0</v>
@@ -7803,7 +7803,7 @@
         <v>3.0</v>
       </c>
       <c r="E114" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F114" t="s">
         <v>24</v>
@@ -7934,7 +7934,7 @@
         <v>143</v>
       </c>
       <c r="B121" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C121" t="n">
         <v>-5.0</v>
@@ -7943,7 +7943,7 @@
         <v>3.0</v>
       </c>
       <c r="E121" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F121" t="s">
         <v>24</v>
@@ -8314,7 +8314,7 @@
         <v>162</v>
       </c>
       <c r="B140" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C140" t="n">
         <v>-5.0</v>
@@ -8323,7 +8323,7 @@
         <v>3.0</v>
       </c>
       <c r="E140" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F140" t="s">
         <v>24</v>
@@ -8734,7 +8734,7 @@
         <v>183</v>
       </c>
       <c r="B161" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C161" t="n">
         <v>-5.0</v>
@@ -8743,7 +8743,7 @@
         <v>3.0</v>
       </c>
       <c r="E161" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F161" t="s">
         <v>24</v>
@@ -8754,7 +8754,7 @@
         <v>184</v>
       </c>
       <c r="B162" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C162" t="n">
         <v>-5.0</v>
@@ -8763,7 +8763,7 @@
         <v>3.0</v>
       </c>
       <c r="E162" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F162" t="s">
         <v>24</v>
@@ -8774,7 +8774,7 @@
         <v>185</v>
       </c>
       <c r="B163" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C163" t="n">
         <v>-5.0</v>
@@ -8783,7 +8783,7 @@
         <v>3.0</v>
       </c>
       <c r="E163" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F163" t="s">
         <v>24</v>
@@ -8954,7 +8954,7 @@
         <v>194</v>
       </c>
       <c r="B172" t="n">
-        <v>-15.653559774527022</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
         <v>-5.0</v>
@@ -8963,7 +8963,7 @@
         <v>3.0</v>
       </c>
       <c r="E172" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="s">
         <v>24</v>
@@ -9391,7 +9391,7 @@
         <v>30.0</v>
       </c>
       <c r="G4" t="n">
-        <v>45690.27779577015</v>
+        <v>227881.95423552947</v>
       </c>
       <c r="H4" t="s">
         <v>223</v>
@@ -9418,7 +9418,7 @@
         <v>30.0</v>
       </c>
       <c r="G5" t="n">
-        <v>9355.03327579218</v>
+        <v>547.5955914190429</v>
       </c>
       <c r="H5" t="s">
         <v>224</v>
@@ -9445,7 +9445,7 @@
         <v>30.0</v>
       </c>
       <c r="G6" t="n">
-        <v>5887.172180779548</v>
+        <v>832.6227469347657</v>
       </c>
       <c r="H6" t="s">
         <v>227</v>
@@ -9472,7 +9472,7 @@
         <v>30.0</v>
       </c>
       <c r="G7" t="n">
-        <v>5916.5636376166285</v>
+        <v>1921.0982081579673</v>
       </c>
       <c r="H7" t="s">
         <v>224</v>
@@ -17156,7 +17156,7 @@
         <v>766</v>
       </c>
       <c r="B520" t="s">
-        <v>767</v>
+        <v>224</v>
       </c>
       <c r="C520"/>
       <c r="D520"/>
@@ -17168,10 +17168,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
+        <v>767</v>
+      </c>
+      <c r="B521" t="s">
         <v>768</v>
-      </c>
-      <c r="B521" t="s">
-        <v>769</v>
       </c>
       <c r="C521"/>
       <c r="D521"/>
@@ -17183,10 +17183,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
+        <v>769</v>
+      </c>
+      <c r="B522" t="s">
         <v>770</v>
-      </c>
-      <c r="B522" t="s">
-        <v>771</v>
       </c>
       <c r="C522"/>
       <c r="D522"/>
@@ -17198,10 +17198,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
+        <v>771</v>
+      </c>
+      <c r="B523" t="s">
         <v>772</v>
-      </c>
-      <c r="B523" t="s">
-        <v>773</v>
       </c>
       <c r="C523"/>
       <c r="D523"/>
@@ -17213,10 +17213,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
+        <v>773</v>
+      </c>
+      <c r="B524" t="s">
         <v>774</v>
-      </c>
-      <c r="B524" t="s">
-        <v>773</v>
       </c>
       <c r="C524"/>
       <c r="D524"/>

--- a/Benchmark-Models/Chen_MSB2009/General_info.xlsx
+++ b/Benchmark-Models/Chen_MSB2009/General_info.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Errors are assumed as additive Gaussian errors</t>
   </si>
   <si>
-    <t xml:space="preserve">Log-likelihood value of the model is </t>
+    <t xml:space="preserve">2*Log-likelihood value of the model is </t>
   </si>
   <si>
     <t xml:space="preserve">Chi2 value of the model is </t>
@@ -5368,6 +5368,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
